--- a/Assets/Resources/Data/CardLibrary.xlsx
+++ b/Assets/Resources/Data/CardLibrary.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Unity\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A627F5-FD5C-457F-B19D-3CB8ED8C38D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0E383-F36C-4402-B7CD-98F42B8480E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
   </bookViews>
   <sheets>
     <sheet name="CardLibrary" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$23</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>타격</t>
   </si>
@@ -216,6 +216,34 @@
   </si>
   <si>
     <t>attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애청자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 턴 동안 에너지 2 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패의 카드 한 장을 이번 전투 동안 코스트 0으로 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G23" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G23" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G26" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G26" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
     <sortCondition ref="A1:A23"/>
   </sortState>
@@ -615,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6DCCE8-7F42-4F0F-8BED-5D32C8CDC043}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -630,6 +658,7 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -1159,6 +1188,49 @@
       </c>
       <c r="G23" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/CardLibrary.xlsx
+++ b/Assets/Resources/Data/CardLibrary.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Unity\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0E383-F36C-4402-B7CD-98F42B8480E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0BC84C-DE7D-4FB7-BDAE-3C58BD12187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
+    <workbookView xWindow="-24" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
   </bookViews>
   <sheets>
     <sheet name="CardLibrary" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$26</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>타격</t>
   </si>
@@ -244,6 +244,50 @@
   </si>
   <si>
     <t>패의 카드 한 장을 이번 전투 동안 코스트 0으로 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적 무도가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 11, 적 전체 데미지 2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적선장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야호이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 해적 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대충 해적 궁수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,10 +372,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G26" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G26" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G23">
-    <sortCondition ref="A1:A23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G29" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G29" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
+    <sortCondition ref="A1:A29"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CEAE30D-CA72-418A-AAEA-81622FE50B54}" uniqueName="1" name="index" queryTableFieldId="1"/>
@@ -643,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6DCCE8-7F42-4F0F-8BED-5D32C8CDC043}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1231,6 +1275,101 @@
       </c>
       <c r="F25" t="s">
         <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/CardLibrary.xlsx
+++ b/Assets/Resources/Data/CardLibrary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Unity\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0BC84C-DE7D-4FB7-BDAE-3C58BD12187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2653B8-DD78-4241-BBAA-8B38ADCADCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$29</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="160">
   <si>
     <t>타격</t>
   </si>
@@ -56,12 +56,6 @@
     <t>적 1기에게 5의 데미지</t>
   </si>
   <si>
-    <t>공격</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>방어</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>적 1기에게 3의 데미지, 화상 1 부여</t>
   </si>
   <si>
-    <t>fire</t>
-  </si>
-  <si>
     <t>쌍염구</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>적 1기에게 2의 데미지, 동상 1 부여</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
     <t>고드름</t>
   </si>
   <si>
@@ -219,14 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애청자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,47 +223,388 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잡몹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적 무도가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 11, 적 전체 데미지 2 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적선장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>야호이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해적 궁수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 해적 검사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대충 해적 궁수</t>
+    <t>기본 무도가</t>
+  </si>
+  <si>
+    <t>기본 검사</t>
+  </si>
+  <si>
+    <t>기본 궁수</t>
+  </si>
+  <si>
+    <t>개조 무도가</t>
+  </si>
+  <si>
+    <t xml:space="preserve">개조 검사 </t>
+  </si>
+  <si>
+    <t>개조 궁수</t>
+  </si>
+  <si>
+    <t>개조 힐러</t>
+  </si>
+  <si>
+    <t>완성형 무도가</t>
+  </si>
+  <si>
+    <t>완성형 검사</t>
+  </si>
+  <si>
+    <t>완성형 궁수</t>
+  </si>
+  <si>
+    <t>완성형 힐러</t>
+  </si>
+  <si>
+    <t>완성형 도적</t>
+  </si>
+  <si>
+    <t>몰라 뭔지</t>
+  </si>
+  <si>
+    <t>성녀 리샤</t>
+  </si>
+  <si>
+    <t>메카닉 체키</t>
+  </si>
+  <si>
+    <t>전투형 부하</t>
+  </si>
+  <si>
+    <t>돌격형 부하</t>
+  </si>
+  <si>
+    <t>후방지원형 부하</t>
+  </si>
+  <si>
+    <t>개 수인</t>
+  </si>
+  <si>
+    <t>곰 수인</t>
+  </si>
+  <si>
+    <t>새 수인</t>
+  </si>
+  <si>
+    <t>신실한 신도</t>
+  </si>
+  <si>
+    <t>덩치 신도</t>
+  </si>
+  <si>
+    <t>광신도</t>
+  </si>
+  <si>
+    <t>자동공격 기계</t>
+  </si>
+  <si>
+    <t>철갑방패 기계</t>
+  </si>
+  <si>
+    <t>자가수리 기계</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob2</t>
+  </si>
+  <si>
+    <t>Mob3</t>
+  </si>
+  <si>
+    <t>Pirate1</t>
+  </si>
+  <si>
+    <t>Druids1</t>
+  </si>
+  <si>
+    <t>Saintess1</t>
+  </si>
+  <si>
+    <t>Mecha1</t>
+  </si>
+  <si>
+    <t>Pirate2</t>
+  </si>
+  <si>
+    <t>Pirate3</t>
+  </si>
+  <si>
+    <t>해적선장 마린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드루이드 세레나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pirate3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PirateBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DruidsBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saintess1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaintessBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MechaBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mob1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Druids2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saintess3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saintess2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Druids3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mecha3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 11\n 적 전체 데미지 2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 10\n무작위 적 1기 1 데미지 및 플레이어 방어 3 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 8\n 무작위 적 1기 4 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 19\n적 전체 4 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 18\n무작위 적 1기 3 데미지 및 플레이어 방어 4 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 13\n무작위 적 1기 3 X 2 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 14\n무작위 적 1기 3 데미지 및 플레이어 체력 2 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 28\n적 전체 6 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 27\n무작위 적 1기 5 데미지 및 플레이어 방어 5 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 17\n무작위 적 1기 2 X 4 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 22\n무작위 적 1기 5 데미지 및 플레이어 체력 3 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 18\n무작위 적 1기 6 데미지 및 화상 1, 동상 1, 독 1 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 10\n무작위 적 1기 2 데미지 및 화상 1 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 10\n무작위 적 1기 3 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 10\n무작위 적 1기 2 데미지 및 플레이어 마력 1 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 23\n 무작위 적 1기 6 데미지 및 화상 2 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 11\n무작위 적 1기 3 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 8\n무작위 적 1기 2 데미지 및 플레이어 힘 1 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 12\n무작위 적 1기 2 데미지 및 플레이어 방어 2 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 7\n무작위 적 1기 1 X 3 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 11\n적 전체 1 X 2 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 12\n플레이어 방어 4 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 9\n무작위 적 1기 2 데미지 및 동상 1 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 16\n무작위 적 1기 4 데미지 및 화상 2 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 18\n무작위 적 1기 5 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 14\n무작위 적 1기 4 데미지 및 플레이어 힘 1 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 26\n무작위 적 1기 7 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 20\n무작위 적 1기 6 데미지 및 플레이어 힘 1 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 16\n무작위 적 1기 5 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 20\n무작위 적 1기 4 데미지 및 플레이어 방어 3 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 14\n무작위 적 1기 1 X 4 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 23\n무작위 적 1기 7 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 28\n무작위 적 1기 6 데미지 및 플레이어 방어 4 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 22\n무작위 적 1기 1 X 5 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 16\n적 전체 1 X 3 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 23\n적 전체 1 X 4 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 19\n플레이어 방어 5 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 26\n플레이어 방어 6 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 15\n무작위 적 1기 4 데미지 및 동상 1 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 21\n무작위 적 1기 6 데미지 및 동상 1 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 15\n무작위 적 1기 4 데미지 및 플레이어 마력 1 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 22\n무작위 적 1기 6 데미지 및 플레이어 마력 1 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 11\n무작위 적 1기 1 데미지 및 플레이어 반사 3 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 16\n무작위 적 1기 3 데미지 및 플레이어 반사 3 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 23\n무작위 적 1기 5 데미지 및 플레이어 반사 3 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 8\n무작위 적 1기 6 데미지 및 본인 체력 2 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 13\n무작위 적 1기 10 데미지 및 본인 체력 3 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 20\n무작위 적 1기 14 데미지 및 본인 체력 4 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,10 +689,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G29" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G29" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
-    <sortCondition ref="A1:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G77" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G77" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G77">
+    <sortCondition ref="A1:A77"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CEAE30D-CA72-418A-AAEA-81622FE50B54}" uniqueName="1" name="index" queryTableFieldId="1"/>
@@ -687,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6DCCE8-7F42-4F0F-8BED-5D32C8CDC043}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A57" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -707,25 +1024,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -745,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -756,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -768,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -779,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -791,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -802,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -814,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -825,10 +1142,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -837,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -848,10 +1165,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -860,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -871,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -883,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -894,10 +1211,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -906,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -917,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -929,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -940,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -952,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -963,10 +1280,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -975,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -986,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>99</v>
@@ -998,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1009,10 +1326,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1021,10 +1338,10 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1032,10 +1349,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1044,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1055,10 +1372,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1067,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1078,10 +1395,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1090,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1101,10 +1418,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1113,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1124,10 +1441,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1136,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1147,10 +1464,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1159,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1170,10 +1487,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>99</v>
@@ -1182,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1193,10 +1510,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1205,10 +1522,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1216,10 +1533,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1228,10 +1545,10 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1239,10 +1556,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1251,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1262,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1274,21 +1591,21 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1297,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1320,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1343,40 +1660,1145 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>107</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>115</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>118</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>121</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>126</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>1000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>1001</v>
+      </c>
+      <c r="B75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>1002</v>
+      </c>
+      <c r="B76" t="s">
         <v>67</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
         <v>2</v>
       </c>
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" t="s">
-        <v>64</v>
+      <c r="F76" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>1003</v>
+      </c>
+      <c r="B77" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Assets/Resources/Data/CardLibrary.xlsx
+++ b/Assets/Resources/Data/CardLibrary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Unity\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2653B8-DD78-4241-BBAA-8B38ADCADCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D8871-B388-4F14-B571-A3D6D4167E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$77</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="172">
   <si>
     <t>타격</t>
   </si>
@@ -606,6 +606,51 @@
   <si>
     <t>체력 20\n무작위 적 1기 14 데미지 및 본인 체력 4 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속 연산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과부하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일회용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과충전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 드링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손패의 모든 카드의 코스트 -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손패의 카드 한 장을 선택해 복사, 코스트 0 고정, 사용시 이번 전투에서 소멸 디버프 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손패의 모든 카드의 코스트 0 고정, 사용시 이번 전투에서 소멸 디버프 부여</t>
+  </si>
+  <si>
+    <t>현재 에너지 2배로 증가</t>
+  </si>
+  <si>
+    <t>에너지 2, 힘, 마력 각 1씩 획득</t>
   </si>
 </sst>
 </file>
@@ -651,9 +696,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,10 +737,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G77" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G77" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G77">
-    <sortCondition ref="A1:A77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G82" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G82" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G82">
+    <sortCondition ref="A1:A82"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CEAE30D-CA72-418A-AAEA-81622FE50B54}" uniqueName="1" name="index" queryTableFieldId="1"/>
@@ -1004,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6DCCE8-7F42-4F0F-8BED-5D32C8CDC043}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A1:XFD1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1269,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="G11" t="s">
         <v>85</v>
@@ -1599,22 +1647,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
         <v>84</v>
@@ -1622,22 +1670,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>113</v>
+        <v>162</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
         <v>84</v>
@@ -1645,22 +1693,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>84</v>
@@ -1668,22 +1716,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>115</v>
+        <v>164</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
         <v>84</v>
@@ -1691,22 +1739,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
+        <v>165</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
         <v>84</v>
@@ -1714,22 +1762,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
       </c>
       <c r="G31" t="s">
         <v>84</v>
@@ -1737,13 +1785,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1752,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G32" t="s">
         <v>84</v>
@@ -1760,13 +1808,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1775,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
         <v>84</v>
@@ -1783,13 +1831,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1798,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
         <v>84</v>
@@ -1806,13 +1854,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1821,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s">
         <v>84</v>
@@ -1829,13 +1877,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1844,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
         <v>84</v>
@@ -1852,13 +1900,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1867,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s">
         <v>84</v>
@@ -1875,13 +1923,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1890,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
         <v>84</v>
@@ -1898,13 +1946,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1913,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
         <v>84</v>
@@ -1921,13 +1969,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1936,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s">
         <v>84</v>
@@ -1944,13 +1992,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1959,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
         <v>84</v>
@@ -1967,13 +2015,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1982,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
         <v>84</v>
@@ -1990,13 +2038,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2005,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G43" t="s">
         <v>84</v>
@@ -2013,13 +2061,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2028,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s">
         <v>84</v>
@@ -2036,13 +2084,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2051,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G45" t="s">
         <v>84</v>
@@ -2059,13 +2107,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2074,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s">
         <v>84</v>
@@ -2082,13 +2130,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2097,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s">
         <v>84</v>
@@ -2105,13 +2153,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2120,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G48" t="s">
         <v>84</v>
@@ -2128,13 +2176,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2143,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s">
         <v>84</v>
@@ -2151,13 +2199,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2166,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
         <v>84</v>
@@ -2174,13 +2222,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2189,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s">
         <v>84</v>
@@ -2197,13 +2245,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2212,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G52" t="s">
         <v>84</v>
@@ -2220,13 +2268,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2235,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s">
         <v>84</v>
@@ -2243,13 +2291,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2258,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
         <v>84</v>
@@ -2266,13 +2314,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2281,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
         <v>84</v>
@@ -2289,13 +2337,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2304,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
         <v>84</v>
@@ -2312,13 +2360,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2327,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
         <v>84</v>
@@ -2335,13 +2383,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2350,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
         <v>84</v>
@@ -2358,13 +2406,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2373,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G59" t="s">
         <v>84</v>
@@ -2381,13 +2429,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2396,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G60" t="s">
         <v>84</v>
@@ -2404,13 +2452,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2419,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G61" t="s">
         <v>84</v>
@@ -2427,13 +2475,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2442,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G62" t="s">
         <v>84</v>
@@ -2450,13 +2498,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2465,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G63" t="s">
         <v>84</v>
@@ -2473,13 +2521,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2488,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G64" t="s">
         <v>84</v>
@@ -2496,13 +2544,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2511,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G65" t="s">
         <v>84</v>
@@ -2519,13 +2567,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2534,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G66" t="s">
         <v>84</v>
@@ -2542,13 +2590,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2557,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G67" t="s">
         <v>84</v>
@@ -2565,13 +2613,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2580,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G68" t="s">
         <v>84</v>
@@ -2588,13 +2636,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2603,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
         <v>84</v>
@@ -2611,13 +2659,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2626,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G70" t="s">
         <v>84</v>
@@ -2634,13 +2682,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2649,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
         <v>84</v>
@@ -2657,13 +2705,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2672,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
         <v>84</v>
@@ -2680,13 +2728,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2695,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
         <v>84</v>
@@ -2703,22 +2751,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>1000</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G74" t="s">
         <v>84</v>
@@ -2726,22 +2774,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>1001</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
         <v>84</v>
@@ -2749,22 +2797,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>1002</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G76" t="s">
         <v>84</v>
@@ -2772,25 +2820,140 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>111</v>
+      </c>
+      <c r="G78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>1001</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>1002</v>
+      </c>
+      <c r="B81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>102</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82">
         <v>1003</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>68</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C82" t="s">
         <v>66</v>
       </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>2</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F82" t="s">
         <v>104</v>
       </c>
-      <c r="G77" t="s">
-        <v>84</v>
+      <c r="G82" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/CardLibrary.xlsx
+++ b/Assets/Resources/Data/CardLibrary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Unity\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D8871-B388-4F14-B571-A3D6D4167E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515E5454-DC6D-4573-96D2-CF30F4FA530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$82</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="181">
   <si>
     <t>타격</t>
   </si>
@@ -651,6 +651,42 @@
   </si>
   <si>
     <t>에너지 2, 힘, 마력 각 1씩 획득</t>
+  </si>
+  <si>
+    <t>레블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 15\n무작위 적 1기 2 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 22\n적 2턴마다 전체 5 x 2 데미지 및 화상 2 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 30\n매 턴마다 에너지 1, 드로우 1 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partner1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partner2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partner3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -737,10 +773,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G82" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G82" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G82">
-    <sortCondition ref="A1:A82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G85" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G85" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7CEAE30D-CA72-418A-AAEA-81622FE50B54}" uniqueName="1" name="index" queryTableFieldId="1"/>
@@ -1052,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6DCCE8-7F42-4F0F-8BED-5D32C8CDC043}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1762,45 +1798,45 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
         <v>84</v>
@@ -1808,22 +1844,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="G33" t="s">
         <v>84</v>
@@ -1831,13 +1867,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1846,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G34" t="s">
         <v>84</v>
@@ -1854,13 +1890,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1869,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G35" t="s">
         <v>84</v>
@@ -1877,22 +1913,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
         <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>88</v>
       </c>
       <c r="G36" t="s">
         <v>84</v>
@@ -1900,13 +1936,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1923,13 +1959,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1938,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s">
         <v>84</v>
@@ -1946,13 +1982,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1961,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s">
         <v>84</v>
@@ -1969,13 +2005,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1984,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
         <v>84</v>
@@ -1992,13 +2028,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2015,13 +2051,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2038,13 +2074,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2053,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s">
         <v>84</v>
@@ -2061,13 +2097,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2076,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
         <v>84</v>
@@ -2084,13 +2120,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2099,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
         <v>84</v>
@@ -2107,13 +2143,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2122,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G46" t="s">
         <v>84</v>
@@ -2130,13 +2166,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2145,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s">
         <v>84</v>
@@ -2153,13 +2189,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2168,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
         <v>84</v>
@@ -2176,13 +2212,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2191,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s">
         <v>84</v>
@@ -2199,13 +2235,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2214,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s">
         <v>84</v>
@@ -2222,13 +2258,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2237,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s">
         <v>84</v>
@@ -2245,13 +2281,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2260,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G52" t="s">
         <v>84</v>
@@ -2268,13 +2304,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2283,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
         <v>84</v>
@@ -2291,13 +2327,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2306,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G54" t="s">
         <v>84</v>
@@ -2314,13 +2350,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2329,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G55" t="s">
         <v>84</v>
@@ -2337,13 +2373,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2352,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G56" t="s">
         <v>84</v>
@@ -2360,13 +2396,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2375,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
         <v>84</v>
@@ -2383,13 +2419,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2398,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
         <v>84</v>
@@ -2406,13 +2442,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2421,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
         <v>84</v>
@@ -2429,13 +2465,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2444,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
         <v>84</v>
@@ -2452,13 +2488,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2467,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G61" t="s">
         <v>84</v>
@@ -2475,13 +2511,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2490,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
         <v>84</v>
@@ -2498,13 +2534,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2513,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
         <v>84</v>
@@ -2521,13 +2557,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2536,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G64" t="s">
         <v>84</v>
@@ -2544,13 +2580,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2559,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G65" t="s">
         <v>84</v>
@@ -2567,13 +2603,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2582,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G66" t="s">
         <v>84</v>
@@ -2590,13 +2626,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2605,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G67" t="s">
         <v>84</v>
@@ -2613,13 +2649,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2628,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G68" t="s">
         <v>84</v>
@@ -2636,13 +2672,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2651,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G69" t="s">
         <v>84</v>
@@ -2659,13 +2695,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2674,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
         <v>84</v>
@@ -2682,13 +2718,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2697,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G71" t="s">
         <v>84</v>
@@ -2705,13 +2741,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2720,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G72" t="s">
         <v>84</v>
@@ -2728,13 +2764,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2743,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G73" t="s">
         <v>84</v>
@@ -2751,13 +2787,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2766,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s">
         <v>84</v>
@@ -2774,13 +2810,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2789,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G75" t="s">
         <v>84</v>
@@ -2797,13 +2833,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2812,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G76" t="s">
         <v>84</v>
@@ -2820,13 +2856,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2835,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
         <v>84</v>
@@ -2843,13 +2879,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2858,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
         <v>84</v>
@@ -2866,22 +2902,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>1000</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2889,22 +2925,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>1001</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="G80" t="s">
         <v>84</v>
@@ -2912,22 +2948,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>1002</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G81" t="s">
         <v>84</v>
@@ -2935,10 +2971,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B82" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
         <v>66</v>
@@ -2950,9 +2986,78 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>1001</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>1002</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>1003</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
         <v>104</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G85" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Assets/Resources/Data/CardLibrary.xlsx
+++ b/Assets/Resources/Data/CardLibrary.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Unity\capstone-2023-03\Assets\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hynmi\Documents\GitHub\test\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515E5454-DC6D-4573-96D2-CF30F4FA530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1990D3D-631F-42D2-A225-3291155761FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
   </bookViews>
   <sheets>
     <sheet name="CardLibrary" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$G$85</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'CardLibrary'!$A$1:$H$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="200">
   <si>
     <t>타격</t>
   </si>
@@ -211,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이번 턴 동안 에너지 2 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,10 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력 26\n무작위 적 1기 7 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력 20\n무작위 적 1기 6 데미지 및 플레이어 힘 1 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,6 +678,90 @@
   </si>
   <si>
     <t>Partner3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 26\n무작위 적 1기 7 데미지 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_dam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire_eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice_bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 턴 동안 마력 2 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,34 +834,44 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{D8971577-90F3-4FF0-893C-C853B7FCB935}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="13" unboundColumnsRight="4">
+    <queryTableFields count="12">
       <queryTableField id="1" name="Column1.index" tableColumnId="1"/>
       <queryTableField id="2" name="Column1.name" tableColumnId="2"/>
       <queryTableField id="3" name="Column1.description" tableColumnId="3"/>
       <queryTableField id="4" name="Column1.cost" tableColumnId="4"/>
       <queryTableField id="5" name="Column1.rarity" tableColumnId="5"/>
       <queryTableField id="6" name="Column1.type" tableColumnId="6"/>
-      <queryTableField id="7" name="Column1.attribute" tableColumnId="7"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="7" name="Column1.attribute" tableColumnId="8"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="11" dataBound="0" tableColumnId="12"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:G85" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G85" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}" name="CardLibrary" displayName="CardLibrary" ref="A1:L85" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L85" xr:uid="{1A54E34B-32F9-4B68-BE81-286E9C397A0E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G85">
     <sortCondition ref="A1:A85"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7CEAE30D-CA72-418A-AAEA-81622FE50B54}" uniqueName="1" name="index" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{EB2AD901-A5B7-4B84-B494-3A5A430C6D64}" uniqueName="2" name="name" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{BCA7418B-81BB-4A22-BE8D-F335463D6F35}" uniqueName="3" name="description" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{EA21243A-F5CB-40A9-AD2B-C7FDFC232C69}" uniqueName="4" name="cost" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{911D3EBD-4A4A-4170-85C2-FE2E5EED6220}" uniqueName="5" name="rarity" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{E678BFD6-13ED-41F3-8674-8E485AB3C01A}" uniqueName="6" name="type" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{A51C94B2-05A9-4C80-9D1B-A9AAFB65BD61}" uniqueName="7" name="attribute" queryTableFieldId="7"/>
+    <tableColumn id="7" xr3:uid="{A51C94B2-05A9-4C80-9D1B-A9AAFB65BD61}" uniqueName="7" name="attack_type" queryTableFieldId="12"/>
+    <tableColumn id="8" xr3:uid="{50A700B7-C67B-4658-99FC-9E7A1A96E074}" uniqueName="8" name="attribute" queryTableFieldId="7"/>
+    <tableColumn id="9" xr3:uid="{2295D496-A8B2-496F-A4A7-1E2D168A5780}" uniqueName="9" name="target" queryTableFieldId="8"/>
+    <tableColumn id="10" xr3:uid="{29BF2D58-BCD5-4484-BD7F-D53EB4B5B322}" uniqueName="10" name="damage" queryTableFieldId="9"/>
+    <tableColumn id="11" xr3:uid="{B9C7927F-CC4C-4CEC-9B50-E2CFE90EBA18}" uniqueName="11" name="times" queryTableFieldId="10"/>
+    <tableColumn id="12" xr3:uid="{D657A8B1-1D14-4D03-9997-E66ED7F246B1}" uniqueName="12" name="special" queryTableFieldId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1088,25 +1174,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6DCCE8-7F42-4F0F-8BED-5D32C8CDC043}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.09765625" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.75" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="75.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1126,10 +1212,25 @@
         <v>48</v>
       </c>
       <c r="G1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1146,13 +1247,28 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1172,10 +1288,25 @@
         <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1192,13 +1323,28 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1215,13 +1361,28 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1238,13 +1399,28 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1261,13 +1437,28 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1284,13 +1475,28 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1307,13 +1513,28 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1330,13 +1551,28 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1353,13 +1589,28 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1376,13 +1627,28 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1399,13 +1665,28 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1422,13 +1703,28 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1445,13 +1741,28 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1468,13 +1779,28 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1491,13 +1817,28 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1514,13 +1855,28 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1537,13 +1893,28 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1560,13 +1931,28 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1583,13 +1969,28 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1606,13 +2007,28 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1629,13 +2045,28 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1643,7 +2074,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1652,21 +2083,36 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1675,21 +2121,36 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1698,21 +2159,36 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26">
+        <v>-1</v>
+      </c>
+      <c r="K26">
+        <v>-1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1721,21 +2197,36 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>-1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1744,21 +2235,36 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28">
+        <v>-1</v>
+      </c>
+      <c r="K28">
+        <v>-1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1767,21 +2273,36 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29">
+        <v>-1</v>
+      </c>
+      <c r="K29">
+        <v>-1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1790,21 +2311,36 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30">
+        <v>-1</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1813,21 +2349,36 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H31" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1836,21 +2387,36 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H32" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1859,21 +2425,36 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J33">
+        <v>-1</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1882,21 +2463,36 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H34" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1905,21 +2501,36 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1928,21 +2539,36 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1951,21 +2577,36 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1974,21 +2615,36 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1997,21 +2653,36 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H39" t="s">
+        <v>83</v>
+      </c>
+      <c r="I39" t="s">
+        <v>187</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2020,21 +2691,36 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2043,21 +2729,36 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2066,21 +2767,36 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2089,21 +2805,36 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H43" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2112,21 +2843,36 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s">
+        <v>187</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2135,21 +2881,36 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H45" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2158,21 +2919,36 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" t="s">
+        <v>187</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2181,21 +2957,36 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2204,21 +2995,36 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>187</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2227,21 +3033,36 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" t="s">
+        <v>187</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2250,21 +3071,36 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2273,21 +3109,36 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" t="s">
+        <v>187</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2296,21 +3147,36 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2319,21 +3185,36 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H53" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s">
+        <v>187</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2342,21 +3223,36 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2365,21 +3261,36 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2388,21 +3299,36 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s">
+        <v>181</v>
+      </c>
+      <c r="J56">
+        <v>-1</v>
+      </c>
+      <c r="K56">
+        <v>-1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2411,21 +3337,36 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2434,21 +3375,36 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" t="s">
+        <v>187</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2457,21 +3413,36 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2480,21 +3451,36 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2503,21 +3489,36 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s">
+        <v>187</v>
+      </c>
+      <c r="J61">
+        <v>5</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2526,21 +3527,36 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s">
+        <v>187</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2549,21 +3565,36 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2572,21 +3603,36 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2595,21 +3641,36 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H65" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s">
+        <v>187</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2618,21 +3679,36 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s">
+        <v>187</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>133</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2641,21 +3717,36 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H67" t="s">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2664,21 +3755,36 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68" t="s">
+        <v>181</v>
+      </c>
+      <c r="J68">
+        <v>-1</v>
+      </c>
+      <c r="K68">
+        <v>-1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2687,21 +3793,36 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H69" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s">
+        <v>187</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2710,21 +3831,36 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H70" t="s">
+        <v>83</v>
+      </c>
+      <c r="I70" t="s">
+        <v>187</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>137</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2733,21 +3869,36 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s">
+        <v>187</v>
+      </c>
+      <c r="J71">
+        <v>7</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2756,21 +3907,36 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H72" t="s">
+        <v>83</v>
+      </c>
+      <c r="I72" t="s">
+        <v>187</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2779,21 +3945,36 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H73" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s">
+        <v>187</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2802,21 +3983,36 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H74" t="s">
+        <v>83</v>
+      </c>
+      <c r="I74" t="s">
+        <v>187</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2825,21 +4021,36 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H75" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s">
+        <v>187</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2848,21 +4059,36 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H76" t="s">
+        <v>83</v>
+      </c>
+      <c r="I76" t="s">
+        <v>187</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2871,21 +4097,36 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s">
+        <v>187</v>
+      </c>
+      <c r="J77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>144</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2894,21 +4135,36 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I78" t="s">
+        <v>187</v>
+      </c>
+      <c r="J78">
+        <v>14</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2917,21 +4173,36 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s">
+        <v>182</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2940,21 +4211,36 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H80" t="s">
+        <v>83</v>
+      </c>
+      <c r="I80" t="s">
+        <v>181</v>
+      </c>
+      <c r="J80">
+        <v>-1</v>
+      </c>
+      <c r="K80">
+        <v>-1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2963,21 +4249,36 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81" t="s">
+        <v>187</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1000</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2986,21 +4287,36 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H82" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>-1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1001</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3009,21 +4325,36 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H83" t="s">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s">
+        <v>187</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>-1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1002</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3032,21 +4363,36 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+      <c r="H84" t="s">
+        <v>83</v>
+      </c>
+      <c r="I84" t="s">
+        <v>187</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>-1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1003</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3055,10 +4401,25 @@
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G85" t="s">
-        <v>166</v>
+        <v>189</v>
+      </c>
+      <c r="H85" t="s">
+        <v>164</v>
+      </c>
+      <c r="I85" t="s">
+        <v>187</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>-1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3077,7 +4438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/CardLibrary.xlsx
+++ b/Assets/Resources/Data/CardLibrary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hynmi\Documents\GitHub\test\capstone-2023-03\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1990D3D-631F-42D2-A225-3291155761FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC0DF5-34AD-4CE6-A216-EC82E533D369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{B23A8F8E-BE4C-4BB4-A989-6327509EAC07}"/>
   </bookViews>
   <sheets>
     <sheet name="CardLibrary" sheetId="2" r:id="rId1"/>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6DCCE8-7F42-4F0F-8BED-5D32C8CDC043}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
